--- a/homework/HW5_MIRT/GRI_Items.xlsx
+++ b/homework/HW5_MIRT/GRI_Items.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iowa-my.sharepoint.com/personal/jtemplin_uiowa_edu/Documents/02. Teaching/BPM 2024/Bayesian-Psychometric-Modeling-Course-Fall-2024/homework/HW5_MIRT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iowa-my.sharepoint.com/personal/jtemplin_uiowa_edu/Documents/02. Teaching/BPM 2024/homework/HW5_MIRT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{1355CEBD-2C54-4FEB-B3ED-979A521EC71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC2E9AAC-167F-DE4F-89E7-E88A95067FD1}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{1355CEBD-2C54-4FEB-B3ED-979A521EC71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FA8F289-8005-BD45-888E-9A2B7653DDEB}"/>
   <bookViews>
     <workbookView xWindow="27500" yWindow="500" windowWidth="23700" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -292,6 +292,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -584,7 +588,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -786,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
